--- a/Config/TestScript_Check.xlsx
+++ b/Config/TestScript_Check.xlsx
@@ -1,40 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA288F79-D55C-41DD-B108-CE444B784C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F7630E-39F0-48D8-BC43-A6BAB95E60A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>JIRA ID</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-310</t>
   </si>
   <si>
     <t>https://jira.jnj.com/browse/JCVZ-929</t>
   </si>
   <si>
-    <t>https://jira.jnj.com/browse/JCVZ-928</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-932</t>
+    <t>https://jira.jnj.com/browse/JCVZ-1030</t>
   </si>
 </sst>
 </file>
@@ -420,7 +427,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,21 +451,15 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Config/TestScript_Check.xlsx
+++ b/Config/TestScript_Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRaj7\PycharmProjects\DORUserStory\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F7630E-39F0-48D8-BC43-A6BAB95E60A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58232651-B6A2-407F-9F56-BAC3FA7E93B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20460" windowHeight="9705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>JIRA ID</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-929</t>
-  </si>
-  <si>
-    <t>https://jira.jnj.com/browse/JCVZ-1030</t>
   </si>
 </sst>
 </file>
@@ -427,40 +421,26 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.7265625" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>